--- a/csv/LL.xlsx
+++ b/csv/LL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
   <si>
     <t>Comunidad</t>
   </si>
@@ -55,12 +55,21 @@
     <t>Canarias</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Hondarribia</t>
   </si>
   <si>
     <t>Bakio</t>
   </si>
   <si>
+    <t>Cabo de Higuer</t>
+  </si>
+  <si>
+    <t>Donostia-San Sebastian, Donostia DAVIS</t>
+  </si>
+  <si>
     <t>Mundaka, Pl. de Laida</t>
   </si>
   <si>
@@ -73,6 +82,12 @@
     <t>Zarautz</t>
   </si>
   <si>
+    <t>Zurriola</t>
+  </si>
+  <si>
+    <t>Gorliz</t>
+  </si>
+  <si>
     <t>Playa de Ereaga</t>
   </si>
   <si>
@@ -94,7 +109,7 @@
     <t>Somo</t>
   </si>
   <si>
-    <t>Ria de Somo</t>
+    <t>Ría de Somo</t>
   </si>
   <si>
     <t>Pedrana</t>
@@ -118,13 +133,13 @@
     <t>Ribadesella</t>
   </si>
   <si>
-    <t>Arenal de Moris</t>
-  </si>
-  <si>
-    <t>Playa Espasa</t>
-  </si>
-  <si>
-    <t>Ria de Rodiles</t>
+    <t>Arenal de Morís</t>
+  </si>
+  <si>
+    <t>Playa la Espasa</t>
+  </si>
+  <si>
+    <t>Ría de Rodiles</t>
   </si>
   <si>
     <t>Penarrubia</t>
@@ -172,6 +187,12 @@
     <t>Bares</t>
   </si>
   <si>
+    <t>Espasante</t>
+  </si>
+  <si>
+    <t>Fornos</t>
+  </si>
+  <si>
     <t>Cedeira</t>
   </si>
   <si>
@@ -199,10 +220,10 @@
     <t>Playa Grande de Mino</t>
   </si>
   <si>
-    <t>Sabon</t>
-  </si>
-  <si>
-    <t>Razo_Baldaio</t>
+    <t>Sabón</t>
+  </si>
+  <si>
+    <t>Razo-Baldaio</t>
   </si>
   <si>
     <t>Laxe</t>
@@ -211,7 +232,7 @@
     <t>Traba</t>
   </si>
   <si>
-    <t>Cabo Vilan</t>
+    <t>Cabo Vilán</t>
   </si>
   <si>
     <t>Nemina</t>
@@ -226,7 +247,7 @@
     <t>Lariño</t>
   </si>
   <si>
-    <t>Ancorodoiro</t>
+    <t>Ancoradoiro</t>
   </si>
   <si>
     <t>As Furnas</t>
@@ -238,10 +259,10 @@
     <t>O vilar</t>
   </si>
   <si>
-    <t>Barraña , Boiro</t>
-  </si>
-  <si>
-    <t>Corregueiros</t>
+    <t>Barraña, Boiro</t>
+  </si>
+  <si>
+    <t>Carrageiros</t>
   </si>
   <si>
     <t>Rianxo</t>
@@ -259,16 +280,19 @@
     <t>Ria Pontevedra</t>
   </si>
   <si>
+    <t>Bueu, Agrelo</t>
+  </si>
+  <si>
     <t>Tuia</t>
   </si>
   <si>
     <t>Nerga</t>
   </si>
   <si>
-    <t>Bueu, Agrelo</t>
-  </si>
-  <si>
-    <t>Liemens</t>
+    <t>Liméns</t>
+  </si>
+  <si>
+    <t>El Bao</t>
   </si>
   <si>
     <t>Vigo</t>
@@ -277,7 +301,7 @@
     <t>Patos</t>
   </si>
   <si>
-    <t>Playa de América</t>
+    <t>Playa  América</t>
   </si>
   <si>
     <t>Punta del Moral</t>
@@ -289,7 +313,7 @@
     <t>Punta Umbría-Playa</t>
   </si>
   <si>
-    <t>Magazon</t>
+    <t>Magazón</t>
   </si>
   <si>
     <t>La Ballena</t>
@@ -316,16 +340,13 @@
     <t>Cabopino</t>
   </si>
   <si>
-    <t>Los genoveses</t>
+    <t>Los Genoveses</t>
   </si>
   <si>
     <t>San José</t>
   </si>
   <si>
-    <t>El Bao</t>
-  </si>
-  <si>
-    <t>El zapillo</t>
+    <t>El Zapillo</t>
   </si>
   <si>
     <t>Culoperro</t>
@@ -385,25 +406,10 @@
     <t>El Cotillo</t>
   </si>
   <si>
-    <t>Cabo de Higuer</t>
-  </si>
-  <si>
-    <t>Donostia-San Sebastian, Donostia DAVIS</t>
-  </si>
-  <si>
-    <t>Zurriola</t>
-  </si>
-  <si>
-    <t>Gorliz</t>
-  </si>
-  <si>
-    <t>Espasante</t>
-  </si>
-  <si>
-    <t>Fornos</t>
-  </si>
-  <si>
     <t>Salinas de Arinaga</t>
+  </si>
+  <si>
+    <t>Hendaye</t>
   </si>
 </sst>
 </file>
@@ -761,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>43.38</v>
@@ -800,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>43.43</v>
@@ -814,13 +820,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>43.4</v>
+        <v>43.39</v>
       </c>
       <c r="D4">
-        <v>-2.68</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -828,13 +834,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>43.42</v>
+        <v>43.303</v>
       </c>
       <c r="D5">
-        <v>-2.68</v>
+        <v>-2.0157</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -842,13 +848,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>43.39</v>
+        <v>43.4</v>
       </c>
       <c r="D6">
-        <v>-2.99</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -856,13 +862,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>43.29</v>
+        <v>43.42</v>
       </c>
       <c r="D7">
-        <v>-2.17</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -870,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>43.35</v>
+        <v>43.39</v>
       </c>
       <c r="D8">
-        <v>-3.02</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -884,13 +890,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>43.38</v>
+        <v>43.29</v>
       </c>
       <c r="D9">
-        <v>-3.03</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -898,69 +904,69 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>43.35</v>
+        <v>43.33</v>
       </c>
       <c r="D10">
-        <v>-3.11</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>43.41</v>
       </c>
       <c r="D11">
-        <v>-3.31</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>43.4193</v>
+        <v>43.35</v>
       </c>
       <c r="D12">
-        <v>-3.4393</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>43.46</v>
+        <v>43.38</v>
       </c>
       <c r="D13">
-        <v>-3.46</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>43.46</v>
+        <v>43.35</v>
       </c>
       <c r="D14">
-        <v>-3.75</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -968,13 +974,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>43.46</v>
+        <v>43.41</v>
       </c>
       <c r="D15">
-        <v>-3.76</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -982,13 +988,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>43.44</v>
+        <v>43.4193</v>
       </c>
       <c r="D16">
-        <v>-3.77</v>
+        <v>-3.4393</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -996,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>43.47</v>
+        <v>43.46</v>
       </c>
       <c r="D17">
-        <v>-3.78</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1010,13 +1016,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>43.39</v>
+        <v>43.46</v>
       </c>
       <c r="D18">
-        <v>-4.33</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1024,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>43.391</v>
+        <v>43.46</v>
       </c>
       <c r="D19">
-        <v>-4.372</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1038,13 +1044,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>43.43</v>
+        <v>43.44</v>
       </c>
       <c r="D20">
-        <v>-4.04</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1052,69 +1058,69 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>43.45</v>
+        <v>43.47</v>
       </c>
       <c r="D21">
-        <v>-3.97</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>43.4668</v>
+        <v>43.39</v>
       </c>
       <c r="D22">
-        <v>-5.0704</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>43.47</v>
+        <v>43.391</v>
       </c>
       <c r="D23">
-        <v>-5.18</v>
+        <v>-4.372</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>43.48</v>
+        <v>43.43</v>
       </c>
       <c r="D24">
-        <v>-5.22</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>43.53</v>
+        <v>43.45</v>
       </c>
       <c r="D25">
-        <v>-5.38</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1122,13 +1128,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
-        <v>43.55</v>
+        <v>43.4668</v>
       </c>
       <c r="D26">
-        <v>-5.62</v>
+        <v>-5.0704</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1136,13 +1142,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
-        <v>43.54</v>
+        <v>43.47</v>
       </c>
       <c r="D27">
-        <v>-5.66</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1150,13 +1156,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>43.5886</v>
+        <v>43.48</v>
       </c>
       <c r="D28">
-        <v>-5.7578</v>
+        <v>-5.22</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1164,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
-        <v>43.62</v>
+        <v>43.53</v>
       </c>
       <c r="D29">
-        <v>-5.79</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1178,13 +1184,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
-        <v>43.58</v>
+        <v>43.55</v>
       </c>
       <c r="D30">
-        <v>-5.96</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1192,13 +1198,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
-        <v>43.57</v>
+        <v>43.54</v>
       </c>
       <c r="D31">
-        <v>-6.06</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1206,13 +1212,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>43.57</v>
+        <v>43.5886</v>
       </c>
       <c r="D32">
-        <v>-6.07</v>
+        <v>-5.7578</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1220,13 +1226,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>43.5661</v>
+        <v>43.62</v>
       </c>
       <c r="D33">
-        <v>-6.9489</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1234,13 +1240,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>43.55</v>
+        <v>43.58</v>
       </c>
       <c r="D34">
-        <v>-7</v>
+        <v>-5.96</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1248,69 +1254,69 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
-        <v>43.54</v>
+        <v>43.57</v>
       </c>
       <c r="D35">
-        <v>-7.03</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
-        <v>43.5409</v>
+        <v>43.57</v>
       </c>
       <c r="D36">
-        <v>-7.0369</v>
+        <v>-6.07</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
-        <v>43.57</v>
+        <v>43.5661</v>
       </c>
       <c r="D37">
-        <v>-7.24</v>
+        <v>-6.9489</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>43.67</v>
+        <v>43.55</v>
       </c>
       <c r="D38">
-        <v>-7.6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
-        <v>43.74</v>
+        <v>43.54</v>
       </c>
       <c r="D39">
-        <v>-7.7</v>
+        <v>-7.03</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1318,13 +1324,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
-        <v>43.77</v>
+        <v>43.5409</v>
       </c>
       <c r="D40">
-        <v>-7.67</v>
+        <v>-7.0369</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1332,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>43.65</v>
+        <v>43.57</v>
       </c>
       <c r="D41">
-        <v>-8.050000000000001</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1346,13 +1352,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
-        <v>43.6397</v>
+        <v>43.67</v>
       </c>
       <c r="D42">
-        <v>-8.113099999999999</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1360,13 +1366,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
-        <v>43.6148</v>
+        <v>43.74</v>
       </c>
       <c r="D43">
-        <v>-8.156599999999999</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1374,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
-        <v>43.58</v>
+        <v>43.77</v>
       </c>
       <c r="D44">
-        <v>-8.220000000000001</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1388,13 +1394,13 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>43.55</v>
+        <v>43.72</v>
       </c>
       <c r="D45">
-        <v>-8.289999999999999</v>
+        <v>-7.81</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1402,13 +1408,13 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
-        <v>43.52</v>
+        <v>43.71</v>
       </c>
       <c r="D46">
-        <v>-8.300000000000001</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1416,13 +1422,13 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>43.48</v>
+        <v>43.65</v>
       </c>
       <c r="D47">
-        <v>-8.32</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1430,13 +1436,13 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
-        <v>43.42</v>
+        <v>43.6397</v>
       </c>
       <c r="D48">
-        <v>-8.4</v>
+        <v>-8.113099999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1444,13 +1450,13 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
-        <v>43.36</v>
+        <v>43.6148</v>
       </c>
       <c r="D49">
-        <v>-8.210000000000001</v>
+        <v>-8.156599999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1458,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50">
-        <v>43.33</v>
+        <v>43.58</v>
       </c>
       <c r="D50">
-        <v>-8.51</v>
+        <v>-8.220000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1472,13 +1478,13 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51">
-        <v>43.3</v>
+        <v>43.55</v>
       </c>
       <c r="D51">
-        <v>-8.68</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1486,13 +1492,13 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52">
-        <v>43.22</v>
+        <v>43.52</v>
       </c>
       <c r="D52">
-        <v>-9</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1500,13 +1506,13 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53">
-        <v>43.19</v>
+        <v>43.48</v>
       </c>
       <c r="D53">
-        <v>-9.039999999999999</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1514,13 +1520,13 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54">
-        <v>43.16</v>
+        <v>43.42</v>
       </c>
       <c r="D54">
-        <v>-9.18</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1528,13 +1534,13 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55">
-        <v>43.01</v>
+        <v>43.36</v>
       </c>
       <c r="D55">
-        <v>-9.26</v>
+        <v>-8.210000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1542,13 +1548,13 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56">
-        <v>42.97</v>
+        <v>43.33</v>
       </c>
       <c r="D56">
-        <v>-9.26</v>
+        <v>-8.51</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1556,13 +1562,13 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57">
-        <v>42.85</v>
+        <v>43.3</v>
       </c>
       <c r="D57">
-        <v>-9.109999999999999</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1570,13 +1576,13 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58">
-        <v>42.77</v>
+        <v>43.22</v>
       </c>
       <c r="D58">
-        <v>-9.119999999999999</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1584,13 +1590,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59">
-        <v>42.75</v>
+        <v>43.19</v>
       </c>
       <c r="D59">
-        <v>-9.1</v>
+        <v>-9.039999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1598,13 +1604,13 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60">
-        <v>42.63</v>
+        <v>43.16</v>
       </c>
       <c r="D60">
-        <v>-9.039999999999999</v>
+        <v>-9.18</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1612,13 +1618,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C61">
-        <v>42.57</v>
+        <v>43.01</v>
       </c>
       <c r="D61">
-        <v>-9.050000000000001</v>
+        <v>-9.26</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1626,13 +1632,13 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62">
-        <v>42.55</v>
+        <v>42.97</v>
       </c>
       <c r="D62">
-        <v>-9.029999999999999</v>
+        <v>-9.26</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1640,13 +1646,13 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63">
-        <v>42.64</v>
+        <v>42.85</v>
       </c>
       <c r="D63">
-        <v>-8.880000000000001</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1654,13 +1660,13 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64">
-        <v>42.6092</v>
+        <v>42.77</v>
       </c>
       <c r="D64">
-        <v>-8.877000000000001</v>
+        <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1668,13 +1674,13 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C65">
-        <v>42.6441</v>
+        <v>42.75</v>
       </c>
       <c r="D65">
-        <v>-8.813800000000001</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1682,13 +1688,13 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66">
         <v>42.63</v>
       </c>
       <c r="D66">
-        <v>-8.76</v>
+        <v>-9.039999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1696,13 +1702,13 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67">
-        <v>42.48</v>
+        <v>42.57</v>
       </c>
       <c r="D67">
-        <v>-8.91</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1710,13 +1716,13 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68">
-        <v>42.45</v>
+        <v>42.55</v>
       </c>
       <c r="D68">
-        <v>-8.880000000000001</v>
+        <v>-9.029999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1724,13 +1730,13 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C69">
-        <v>42.3748</v>
+        <v>42.64</v>
       </c>
       <c r="D69">
-        <v>-8.763</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1738,13 +1744,13 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C70">
-        <v>42.34</v>
+        <v>42.6092</v>
       </c>
       <c r="D70">
-        <v>-8.81</v>
+        <v>-8.877000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1752,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C71">
-        <v>42.26</v>
+        <v>42.6441</v>
       </c>
       <c r="D71">
-        <v>-8.83</v>
+        <v>-8.813800000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1766,13 +1772,13 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C72">
-        <v>42.33</v>
+        <v>42.63</v>
       </c>
       <c r="D72">
-        <v>-8.77</v>
+        <v>-8.76</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1780,13 +1786,13 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C73">
-        <v>42.26</v>
+        <v>42.48</v>
       </c>
       <c r="D73">
-        <v>-8.81</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1794,13 +1800,13 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C74">
-        <v>42.25</v>
+        <v>42.45</v>
       </c>
       <c r="D74">
-        <v>-8.720000000000001</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1808,13 +1814,13 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C75">
-        <v>42.15</v>
+        <v>42.3748</v>
       </c>
       <c r="D75">
-        <v>-8.83</v>
+        <v>-8.763</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1822,111 +1828,111 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76">
-        <v>42.13</v>
+        <v>42.33</v>
       </c>
       <c r="D76">
-        <v>-8.82</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77">
-        <v>37.18</v>
+        <v>42.34</v>
       </c>
       <c r="D77">
-        <v>-7.34</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C78">
-        <v>37.19</v>
+        <v>42.26</v>
       </c>
       <c r="D78">
-        <v>-7.31</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C79">
-        <v>37.18</v>
+        <v>42.26</v>
       </c>
       <c r="D79">
-        <v>-6.97</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C80">
-        <v>37.1109</v>
+        <v>42.2</v>
       </c>
       <c r="D80">
-        <v>-6.7707</v>
+        <v>-8.789999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81">
-        <v>36.67</v>
+        <v>42.25</v>
       </c>
       <c r="D81">
-        <v>-6.41</v>
+        <v>-8.720000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C82">
-        <v>36.2248</v>
+        <v>42.15</v>
       </c>
       <c r="D82">
-        <v>-6.0651</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C83">
-        <v>36.27</v>
+        <v>42.13</v>
       </c>
       <c r="D83">
-        <v>-6.09</v>
+        <v>-8.82</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1934,13 +1940,13 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84">
-        <v>36.1881</v>
+        <v>37.18</v>
       </c>
       <c r="D84">
-        <v>-6.0254</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1948,13 +1954,13 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C85">
-        <v>36.08</v>
+        <v>37.19</v>
       </c>
       <c r="D85">
-        <v>-5.76</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1962,13 +1968,13 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86">
-        <v>36.01</v>
+        <v>37.18</v>
       </c>
       <c r="D86">
-        <v>-5.61</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1976,13 +1982,13 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87">
-        <v>36.49</v>
+        <v>37.1109</v>
       </c>
       <c r="D87">
-        <v>-6.27</v>
+        <v>-6.7707</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1990,13 +1996,13 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88">
-        <v>36.49</v>
+        <v>36.67</v>
       </c>
       <c r="D88">
-        <v>-4.74</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2004,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C89">
-        <v>36.74</v>
+        <v>36.2248</v>
       </c>
       <c r="D89">
-        <v>-2.12</v>
+        <v>-6.0651</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2018,27 +2024,27 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C90">
-        <v>36.76</v>
+        <v>36.27</v>
       </c>
       <c r="D90">
-        <v>-2.11</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C91">
-        <v>42.2</v>
+        <v>36.1881</v>
       </c>
       <c r="D91">
-        <v>-8.789999999999999</v>
+        <v>-6.0254</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2046,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92">
-        <v>36.82</v>
+        <v>36.08</v>
       </c>
       <c r="D92">
-        <v>-2.44</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2060,139 +2066,139 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C93">
-        <v>36.7</v>
+        <v>36.01</v>
       </c>
       <c r="D93">
-        <v>-2.85</v>
+        <v>-5.61</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C94">
-        <v>42.13</v>
+        <v>36.49</v>
       </c>
       <c r="D94">
-        <v>3.12</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C95">
-        <v>42.05</v>
+        <v>36.49</v>
       </c>
       <c r="D95">
-        <v>3.2</v>
+        <v>-4.74</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C96">
-        <v>39.71</v>
+        <v>36.74</v>
       </c>
       <c r="D96">
-        <v>3.46</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C97">
-        <v>28.3914</v>
+        <v>36.76</v>
       </c>
       <c r="D97">
-        <v>-16.5729</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C98">
-        <v>28.06</v>
+        <v>36.82</v>
       </c>
       <c r="D98">
-        <v>-16.73</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C99">
-        <v>28.03</v>
+        <v>36.7</v>
       </c>
       <c r="D99">
-        <v>-16.55</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C100">
-        <v>28.1428</v>
+        <v>42.13</v>
       </c>
       <c r="D100">
-        <v>-15.4359</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C101">
-        <v>28.14</v>
+        <v>42.05</v>
       </c>
       <c r="D101">
-        <v>-15.55</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C102">
-        <v>27.74</v>
+        <v>39.71</v>
       </c>
       <c r="D102">
-        <v>-15.58</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2200,13 +2206,13 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C103">
-        <v>29.25</v>
+        <v>28.3914</v>
       </c>
       <c r="D103">
-        <v>-13.51</v>
+        <v>-16.5729</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2214,13 +2220,13 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C104">
-        <v>29.1229</v>
+        <v>28.06</v>
       </c>
       <c r="D104">
-        <v>-13.5419</v>
+        <v>-16.73</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2228,13 +2234,13 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C105">
-        <v>29.12</v>
+        <v>28.03</v>
       </c>
       <c r="D105">
-        <v>-13.66</v>
+        <v>-16.55</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2242,13 +2248,13 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C106">
-        <v>28.75</v>
+        <v>28.1428</v>
       </c>
       <c r="D106">
-        <v>-13.9</v>
+        <v>-15.4359</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2256,13 +2262,13 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107">
-        <v>28.72</v>
+        <v>28.14</v>
       </c>
       <c r="D107">
-        <v>-13.99</v>
+        <v>-15.55</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2270,13 +2276,13 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C108">
-        <v>28.21</v>
+        <v>27.74</v>
       </c>
       <c r="D108">
-        <v>-14.23</v>
+        <v>-15.58</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2284,13 +2290,13 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C109">
-        <v>28.07</v>
+        <v>29.25</v>
       </c>
       <c r="D109">
-        <v>-14.51</v>
+        <v>-13.51</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2298,13 +2304,13 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C110">
-        <v>28.74</v>
+        <v>29.1229</v>
       </c>
       <c r="D110">
-        <v>-13.38</v>
+        <v>-13.5419</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2312,97 +2318,97 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C111">
-        <v>28.68</v>
+        <v>29.12</v>
       </c>
       <c r="D111">
-        <v>-14.01</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C112">
-        <v>43.39</v>
+        <v>28.75</v>
       </c>
       <c r="D112">
-        <v>-1.79</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C113">
-        <v>43.303</v>
+        <v>28.72</v>
       </c>
       <c r="D113">
-        <v>-2.0157</v>
+        <v>-13.99</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C114">
-        <v>43.33</v>
+        <v>28.21</v>
       </c>
       <c r="D114">
-        <v>-1.98</v>
+        <v>-14.23</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C115">
-        <v>43.41</v>
+        <v>28.07</v>
       </c>
       <c r="D115">
-        <v>-2.95</v>
+        <v>-14.51</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C116">
-        <v>43.72</v>
+        <v>28.74</v>
       </c>
       <c r="D116">
-        <v>-7.81</v>
+        <v>-13.38</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C117">
-        <v>43.71</v>
+        <v>28.68</v>
       </c>
       <c r="D117">
-        <v>-7.85</v>
+        <v>-14.01</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2410,13 +2416,27 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C118">
         <v>27.85</v>
       </c>
       <c r="D118">
         <v>-15.41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119">
+        <v>43.37</v>
+      </c>
+      <c r="D119">
+        <v>-1.78</v>
       </c>
     </row>
   </sheetData>
